--- a/Excel Template.xlsx
+++ b/Excel Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDE72D6-EC81-49F8-8F64-B5DF97C3C853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570148DD-1F23-4039-806B-FD6C8A066E0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Klasse 6a" sheetId="1" r:id="rId1"/>
-    <sheet name="Klasse 6b" sheetId="2" r:id="rId2"/>
-    <sheet name="Klasse 6c" sheetId="3" r:id="rId3"/>
+    <sheet name="Class 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Class 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Class 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,12 +35,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Schnitt</t>
-  </si>
-  <si>
-    <t>Gerundet</t>
-  </si>
-  <si>
     <t>Name 1</t>
   </si>
   <si>
@@ -114,6 +108,12 @@
   </si>
   <si>
     <t>Name 25</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Rounded</t>
   </si>
 </sst>
 </file>
@@ -175,7 +175,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,11 +514,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -548,10 +548,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -569,7 +569,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -589,7 +589,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -629,7 +629,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -649,7 +649,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -689,7 +689,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -709,7 +709,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -729,7 +729,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -749,7 +749,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -769,7 +769,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -789,7 +789,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -809,7 +809,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -829,7 +829,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -849,7 +849,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -869,7 +869,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -889,7 +889,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -909,7 +909,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -929,7 +929,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -949,7 +949,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -969,7 +969,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -989,7 +989,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1089,10 +1089,10 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A30"/>
+      <selection activeCell="I3" sqref="H3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1122,10 +1122,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J3" s="3"/>
     </row>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1643,16 +1643,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1662,11 +1662,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1696,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J3" s="3"/>
     </row>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2217,16 +2217,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
